--- a/DATA/numeros1.xlsx
+++ b/DATA/numeros1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="384" yWindow="384" windowWidth="20976" windowHeight="10596" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="numeros" sheetId="1" state="visible" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -573,22 +573,22 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>5527597790</t>
+          <t>5543672518</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cliente encontrado: MARIZA ARELLANO</t>
+          <t>TELCEL MAX SIN LIMITE MIXTO 6500 PLATINO RS INCLUIDAS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$3,450.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$2,716.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -603,62 +603,57 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>672</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ARELLANO</t>
+          <t>AYALA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>POMPA</t>
+          <t>GARCIA</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>MARIZA</t>
+          <t>CARMINA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>AEPM700223M60</t>
+          <t>AAGC611106000</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>LUZ.CENTENO@PORTIMEX.COM.MX</t>
+          <t>CARMINAAYALA14@GMAIL.COM</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>CALLE</t>
+          <t>None</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO</t>
+          <t>RIO SAN JAVIER 220 A</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>304</t>
+          <t>101</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>03100</t>
+          <t>07270</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>BENITO JUAREZ</t>
+          <t>GUSTAVO A. MADERO</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -673,17 +668,17 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>DEL VALLE CENTRO</t>
+          <t>RESIDENCIAL ACUEDUCTO DE GUADALUPE</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>TARJETA DE CREDITO</t>
+          <t>xpath://*[@id='formUsuario:rfc']</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>TELCEL MAX SIN LIMITE MIXTO 3000</t>
+          <t>5613261479</t>
         </is>
       </c>
     </row>
@@ -763,7 +758,6 @@
           <t>647</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
           <t>03100</t>
